--- a/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C4_Input_Error.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C4_Input_Error.xlsx
@@ -258,7 +258,7 @@
     <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">FG1125AS</t>
@@ -328,8 +328,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -411,7 +412,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,6 +426,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,7 +453,7 @@
   <dimension ref="A1:BQ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -673,7 +678,7 @@
       <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">

--- a/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C4_Input_Error.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C4_Input_Error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D0476B-1850-4163-9A0F-6C7BBF17BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32414D0-6400-4A91-A9CC-8733134CA7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="3">
-        <v>45185</v>
+        <v>45200</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>70</v>

--- a/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C4_Input_Error.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C4_Input_Error.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32414D0-6400-4A91-A9CC-8733134CA7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B465AE33-2EBF-465E-A00F-050A6A32B05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -916,7 +916,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="3">
-        <v>45200</v>
+        <v>45215</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>70</v>
